--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc14.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc14.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Estados quanto à promoção do desenvolvimento e transferência da ciência e tecnologia marinhas?</t>
+          <t>De que maneira os Estados devem cooperar para promover o desenvolvimento e a transferência da ciência e tecnologia marinhas?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Devem cooperar para promover ativamente o desenvolvimento e a transferência segundo modalidades e condições equitativas e razoáveis.</t>
+          <t>Os Estados devem cooperar diretamente ou via organizações internacionais, segundo modalidades e condições equitativas e razoáveis, conforme o art. 266, parágrafo 1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág. 74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ao promover a cooperação tecnológica, o que os Estados devem ter em conta em relação aos interesses dos envolvidos?</t>
+          <t>Ao promover a cooperação para transferência de tecnologia marinha, o que os Estados devem levar em devida conta em relação aos envolvidos?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Devem ter em devida conta todos os interesses legítimos, incluindo os direitos e deveres dos possuidores, fornecedores e recebedores de tecnologia.</t>
+          <t>Devem levar em conta todos os interesses legítimos, incluindo os direitos e deveres dos possuidores, fornecedores e recebedores de tecnologia, nos termos do art. 267.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág. 74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quais são algumas das medidas que os Estados devem tomar para atingir os objetivos de transferência de tecnologia?</t>
+          <t>Quais são as formas de cooperação internacional previstas para o desenvolvimento e transferência de tecnologia marinha?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Estabelecer programas de cooperação técnica, promover condições para acordos, realizar conferências, promover intercâmbio de cientistas e empresas conjuntas.</t>
+          <t>A cooperação deve ser efetuada através de programas bilaterais, regionais ou multilaterais existentes, ampliados ou novos, conforme o art. 270.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág. 74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Com quem os Estados devem cooperar para facilitar a transferência de tecnologia relativa às atividades na Área?</t>
+          <t>Qual é o objetivo da cooperação dos Estados com a Autoridade e organizações internacionais em relação à "Área"?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Devem cooperar ativamente com as organizações internacionais competentes e com a Autoridade.</t>
+          <t>O objetivo é encorajar e facilitar a transferência de conhecimentos e tecnologia relativos às atividades na Área aos Estados em desenvolvimento e à Empresa, conforme o art. 273.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O que a Autoridade deve assegurar em relação aos nacionais dos Estados em desenvolvimento nas atividades na Área?</t>
+          <t>Nos termos dos objetivos da Autoridade, como deve ser tratada a documentação técnica relativa a equipamentos e processos na Área?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Que sejam admitidos para fins de estágio como membros do pessoal de gestão, investigação e técnico, baseando-se na distribuição geográfica equitativa.</t>
+          <t>A documentação técnica deve ser posta à disposição de todos os Estados, em particular dos Estados em desenvolvimento que solicitem assistência, conforme o art. 274, alínea 'b'.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual é o objetivo do estabelecimento de centros nacionais de investigação científica e tecnológica marinha?</t>
+          <t>Qual é a finalidade principal do estabelecimento de centros nacionais de investigação científica e tecnológica marinha?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Estimular a investigação pelos Estados costeiros em desenvolvimento e aumentar sua capacidade de utilizar e preservar seus recursos marinhos.</t>
+          <t>Estimular a investigação pelos Estados costeiros em desenvolvimento e aumentar sua capacidade de utilizar e preservar recursos marinhos em benefício próprio, conforme o art. 275, parágrafo 1.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quais são algumas das funções dos centros regionais de investigação científica e tecnológica marinha?</t>
+          <t>Quais áreas de estudo estão incluídas nos programas de formação e ensino das funções dos centros regionais?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Programas de formação, estudos de gestão, proteção do meio marinho, organização de conferências, aquisição de dados e disseminação de resultados.</t>
+          <t>Incluem biologia marinha, oceanografia, hidrografia, engenharia, exploração geológica, extração mineira e tecnologia de dessalinização, conforme o art. 277, alínea 'a'.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Como deve ser feita a disseminação dos resultados da investigação científica pelos centros regionais?</t>
+          <t>Além da formação, que função os centros regionais desempenham em relação às políticas nacionais de transferência de tecnologia?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Através da disseminação imediata por meio de publicações de fácil acesso.</t>
+          <t>Eles devem realizar a divulgação das políticas nacionais sobre transferência de tecnologia marinha e o estudo comparativo sistemático dessas políticas, conforme o art. 277, alínea 'g'.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Como as organizações internacionais competentes devem agir para assegurar o cumprimento das funções da Parte XIV?</t>
+          <t>Como as organizações internacionais competentes devem agir para assegurar o cumprimento das funções da Parte XVI?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Devem tomar medidas apropriadas para assegurar, diretamente ou em estreita cooperação entre si, o cumprimento efetivo das funções.</t>
+          <t>Devem tomar todas as medidas apropriadas, diretamente ou em estreita cooperação entre si, para assegurar o cumprimento efetivo das funções e responsabilidades, conforme o art. 278.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
     </row>
